--- a/pred_ohlcv/54/2019-11-01 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-01 CTXC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -428,6 +433,9 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -452,6 +460,9 @@
         <v>91.37333333333332</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -478,6 +489,9 @@
         <v>91.33</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -504,6 +518,9 @@
         <v>91.28</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -532,6 +549,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -558,6 +578,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +607,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -610,6 +636,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -636,6 +665,9 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -662,6 +694,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -688,6 +723,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -714,6 +752,9 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -740,6 +781,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -764,6 +808,9 @@
         <v>90.74499999999998</v>
       </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -790,6 +837,9 @@
         <v>90.69333333333331</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -818,6 +868,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -842,6 +895,9 @@
         <v>90.6733333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -868,6 +924,9 @@
         <v>90.65333333333329</v>
       </c>
       <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -896,6 +955,9 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -922,6 +984,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -946,6 +1011,9 @@
         <v>90.5783333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -972,6 +1040,9 @@
         <v>90.58833333333331</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1000,6 +1071,9 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1026,6 +1100,9 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1052,6 +1129,9 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1078,6 +1158,9 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1104,6 +1187,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1130,6 +1216,9 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1156,6 +1245,9 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1182,6 +1274,9 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1206,7 +1301,10 @@
         <v>90.41333333333327</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1232,6 +1330,9 @@
         <v>90.3666666666666</v>
       </c>
       <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1258,552 +1359,9 @@
         <v>90.31999999999994</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>88</v>
-      </c>
-      <c r="C35" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="D35" t="n">
-        <v>88</v>
-      </c>
-      <c r="E35" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F35" t="n">
-        <v>500</v>
-      </c>
-      <c r="G35" t="n">
-        <v>90.27333333333327</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="D36" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="F36" t="n">
-        <v>900</v>
-      </c>
-      <c r="G36" t="n">
-        <v>90.27499999999993</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>89</v>
-      </c>
-      <c r="C37" t="n">
-        <v>89</v>
-      </c>
-      <c r="D37" t="n">
-        <v>89</v>
-      </c>
-      <c r="E37" t="n">
-        <v>89</v>
-      </c>
-      <c r="F37" t="n">
-        <v>849.4918</v>
-      </c>
-      <c r="G37" t="n">
-        <v>90.25333333333327</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="C38" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="D38" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="E38" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="F38" t="n">
-        <v>8779.6801</v>
-      </c>
-      <c r="G38" t="n">
-        <v>90.27166666666659</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="C39" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="D39" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="E39" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2216.149</v>
-      </c>
-      <c r="G39" t="n">
-        <v>90.28833333333326</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="C40" t="n">
-        <v>92</v>
-      </c>
-      <c r="D40" t="n">
-        <v>92</v>
-      </c>
-      <c r="E40" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="F40" t="n">
-        <v>20578.9826</v>
-      </c>
-      <c r="G40" t="n">
-        <v>90.31999999999992</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="C41" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="D41" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="E41" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>690.527</v>
-      </c>
-      <c r="G41" t="n">
-        <v>90.32333333333325</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="C42" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="D42" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="E42" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>163.5518</v>
-      </c>
-      <c r="G42" t="n">
-        <v>90.32999999999991</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="C43" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="D43" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="E43" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1931.775</v>
-      </c>
-      <c r="G43" t="n">
-        <v>90.32333333333324</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="C44" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="D44" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="E44" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="F44" t="n">
-        <v>204.0758</v>
-      </c>
-      <c r="G44" t="n">
-        <v>90.32833333333323</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="C45" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="D45" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="E45" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="F45" t="n">
-        <v>444.6034</v>
-      </c>
-      <c r="G45" t="n">
-        <v>90.28666666666658</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="C46" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="D46" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="E46" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1885.137</v>
-      </c>
-      <c r="G46" t="n">
-        <v>90.26666666666658</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="C47" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="D47" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="E47" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1746.7459</v>
-      </c>
-      <c r="G47" t="n">
-        <v>90.22666666666659</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="C48" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="D48" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="E48" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="F48" t="n">
-        <v>6497.725</v>
-      </c>
-      <c r="G48" t="n">
-        <v>90.22166666666658</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="C49" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="D49" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="E49" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="F49" t="n">
-        <v>158.4968</v>
-      </c>
-      <c r="G49" t="n">
-        <v>90.22333333333326</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="C50" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="D50" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="E50" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="F50" t="n">
-        <v>17204.0551</v>
-      </c>
-      <c r="G50" t="n">
-        <v>90.21833333333325</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="C51" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="D51" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="E51" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="F51" t="n">
-        <v>985.0795000000001</v>
-      </c>
-      <c r="G51" t="n">
-        <v>90.21333333333324</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="C52" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="D52" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="E52" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="F52" t="n">
-        <v>500</v>
-      </c>
-      <c r="G52" t="n">
-        <v>90.20833333333324</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>91</v>
-      </c>
-      <c r="C53" t="n">
-        <v>91</v>
-      </c>
-      <c r="D53" t="n">
-        <v>91</v>
-      </c>
-      <c r="E53" t="n">
-        <v>91</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1001.6689</v>
-      </c>
-      <c r="G53" t="n">
-        <v>90.23666666666658</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="C54" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="D54" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="E54" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="F54" t="n">
-        <v>270.1463</v>
-      </c>
-      <c r="G54" t="n">
-        <v>90.26666666666657</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="C55" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="D55" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="E55" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2648.8512</v>
-      </c>
-      <c r="G55" t="n">
-        <v>90.27999999999989</v>
-      </c>
-      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
